--- a/資料/ゲームフロー.xlsx
+++ b/資料/ゲームフロー.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -340,8 +340,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -353,7 +353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7772400" y="3429000"/>
-          <a:ext cx="1135380" cy="457200"/>
+          <a:ext cx="1143000" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -778,8 +778,8 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -789,7 +789,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="8458200" y="2529840"/>
-          <a:ext cx="0" cy="891540"/>
+          <a:ext cx="0" cy="906780"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -883,58 +883,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="カギ線コネクタ 41"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6686550" y="-1314450"/>
-          <a:ext cx="228600" cy="7429500"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1000000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -997,7 +945,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1011,8 +959,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="5027295" y="573405"/>
-          <a:ext cx="1371600" cy="5253990"/>
+          <a:off x="5029200" y="571500"/>
+          <a:ext cx="1371600" cy="5257800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1045,63 +993,9 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="カギ線コネクタ 54"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="1"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3086100" y="685800"/>
-          <a:ext cx="3543300" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -1114,14 +1008,67 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="1"/>
           <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5829300" y="685800"/>
-          <a:ext cx="800100" cy="914400"/>
+          <a:off x="5829300" y="914400"/>
+          <a:ext cx="800100" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4400550" y="-628650"/>
+          <a:ext cx="914400" cy="3543300"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>

--- a/資料/ゲームフロー.xlsx
+++ b/資料/ゲームフロー.xlsx
@@ -8,6 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
+    <sheet name="タイトル" sheetId="2" r:id="rId2"/>
+    <sheet name="ホーム" sheetId="3" r:id="rId3"/>
+    <sheet name="マップ" sheetId="4" r:id="rId4"/>
+    <sheet name="バトル" sheetId="5" r:id="rId5"/>
+    <sheet name="ストーリー" sheetId="6" r:id="rId6"/>
+    <sheet name="装備" sheetId="7" r:id="rId7"/>
+    <sheet name="ポーズ" sheetId="8" r:id="rId8"/>
+    <sheet name="リザルト" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +26,98 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面をタッチ！</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦う</t>
+    <rPh sb="0" eb="1">
+      <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <rPh sb="0" eb="2">
+      <t>ドウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話
+メニュー</t>
+    <rPh sb="0" eb="2">
+      <t>カイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>続ける</t>
+    <rPh sb="0" eb="1">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームに戻る</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア　または　失敗</t>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップに戻る</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,6 +132,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -44,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -52,18 +157,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF336699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -721,15 +1052,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>40676</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>46100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -737,9 +1068,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8115300" y="2522220"/>
-          <a:ext cx="0" cy="914400"/>
+        <a:xfrm flipH="1">
+          <a:off x="8013203" y="2500227"/>
+          <a:ext cx="5424" cy="916570"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -772,14 +1103,14 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>226755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -788,8 +1119,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8458200" y="2529840"/>
-          <a:ext cx="0" cy="906780"/>
+          <a:off x="8428100" y="2504620"/>
+          <a:ext cx="0" cy="903526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1101,6 +1432,3122 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="3436620"/>
+          <a:ext cx="685800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065520" y="3208020"/>
+          <a:ext cx="685800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4015740" y="1203960"/>
+          <a:ext cx="685800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2598420" y="2529840"/>
+          <a:ext cx="685800" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1485900" y="2758440"/>
+          <a:ext cx="1112520" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128167</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184253</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="7"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1728367" y="2920085"/>
+          <a:ext cx="970486" cy="583490"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>211987</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>214985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1373</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>74575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="7"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3183787" y="1594205"/>
+          <a:ext cx="932386" cy="1002590"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2941320" y="1432560"/>
+          <a:ext cx="1074420" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>29107</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>214985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="5"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4601107" y="1594205"/>
+          <a:ext cx="1807313" cy="1613815"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>222353</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="4" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4358640" y="1661160"/>
+          <a:ext cx="1807313" cy="1613815"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="線吹き出し 1 (枠付き) 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="2293620"/>
+          <a:ext cx="2598420" cy="2712720"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 24368"/>
+            <a:gd name="adj2" fmla="val 171"/>
+            <a:gd name="adj3" fmla="val 41433"/>
+            <a:gd name="adj4" fmla="val -82615"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マス：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マップ上に存在するプレイヤーの進路を表したもの。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>色ごとにマスの内容が変わり、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>緑：ストーリー進行の会話マス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>赤：敵との戦闘が始まるバトルマス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>灰：まだ未到達のマス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>紫：その章を終了させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　ボスと戦闘するマス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>になる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="線吹き出し 1 (枠付き) 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="457200"/>
+          <a:ext cx="3063240" cy="845820"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10919"/>
+            <a:gd name="adj2" fmla="val 84"/>
+            <a:gd name="adj3" fmla="val 24915"/>
+            <a:gd name="adj4" fmla="val -17215"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニュー：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューを開き、ホームや装備画面に遷移するためのボタンを表示させる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2606040" y="1813560"/>
+          <a:ext cx="624840" cy="916250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="線吹き出し 1 (枠付き) 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426720" y="541020"/>
+          <a:ext cx="1798320" cy="1082040"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 79215"/>
+            <a:gd name="adj2" fmla="val 99230"/>
+            <a:gd name="adj3" fmla="val 159012"/>
+            <a:gd name="adj4" fmla="val 129314"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクター：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤーの操作キャラクターを表す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現在いるマスに移動する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85930</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="314530" y="481031"/>
+          <a:ext cx="2131490" cy="3139104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>100964</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>207420</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5587364" y="1820545"/>
+          <a:ext cx="792256" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>128269</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>181030</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5843269" y="744855"/>
+          <a:ext cx="738561" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478280" y="4625340"/>
+          <a:ext cx="2453640" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -893"/>
+            <a:gd name="adj2" fmla="val 13096"/>
+            <a:gd name="adj3" fmla="val -131785"/>
+            <a:gd name="adj4" fmla="val -3240"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵キャラ：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バトルマス、ボスマスに登場する。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バトル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>体ほどでる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="線吹き出し 1 (枠付き) 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="1440180"/>
+          <a:ext cx="2865120" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12731"/>
+            <a:gd name="adj2" fmla="val 178"/>
+            <a:gd name="adj3" fmla="val 20548"/>
+            <a:gd name="adj4" fmla="val -44982"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>味方キャラ：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パーティあたり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>体まで編成できる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>207420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6379620" y="1737360"/>
+          <a:ext cx="1583280" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="336699"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="線吹き出し 1 (枠付き) 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6461760" y="4754880"/>
+          <a:ext cx="4366260" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -527"/>
+            <a:gd name="adj2" fmla="val 13079"/>
+            <a:gd name="adj3" fmla="val -42159"/>
+            <a:gd name="adj4" fmla="val 11363"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コマンド：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バトル中にコマンドを選択することでプレイヤーは行動する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戦う：技を選択して敵にダメージを与えたり、味方を強化する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>防御：攻撃を防ぐことで、受けるダメージを減らす。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>道具：アイテムを使用して状況を立て直す。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5676900" y="4122420"/>
+          <a:ext cx="777240" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="336699"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4351020" y="3901440"/>
+          <a:ext cx="2110740" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="336699"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="24809"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="975360" y="858576"/>
+          <a:ext cx="2819400" cy="3136209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="22712"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3994785" y="924309"/>
+          <a:ext cx="2865120" cy="3277188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="2952750"/>
+          <a:ext cx="6515100" cy="1080914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69677</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="2371725"/>
+          <a:ext cx="2755727" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="2362200"/>
+          <a:ext cx="2762250" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>豪鬼</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="2952750"/>
+          <a:ext cx="4876800" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セリフ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="線吹き出し 1 (枠付き) 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="266700"/>
+          <a:ext cx="3257550" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82888"/>
+            <a:gd name="adj2" fmla="val -145"/>
+            <a:gd name="adj3" fmla="val 134273"/>
+            <a:gd name="adj4" fmla="val -47690"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクター：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会話をしているキャラクター。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>話しているキャラクターと違い、話していないキャラクターは明度が下がる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="線吹き出し 1 (枠付き) 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="4800601"/>
+          <a:ext cx="3467100" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38"/>
+            <a:gd name="adj2" fmla="val 13370"/>
+            <a:gd name="adj3" fmla="val -72245"/>
+            <a:gd name="adj4" fmla="val 3150"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セリフ枠：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下の枠はキャラクターのセリフ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上の小さい枠は話しているキャラクターの名前が表示される。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="線吹き出し 1 (枠付き) 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="4629151"/>
+          <a:ext cx="1857375" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 804"/>
+            <a:gd name="adj2" fmla="val 23975"/>
+            <a:gd name="adj3" fmla="val -347580"/>
+            <a:gd name="adj4" fmla="val 24232"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会話メニューボタン：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会話イベント中にオートモード、スキップなどの項目を開く。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152853</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>222704</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="20349" t="17682" r="28488"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5639253" y="718457"/>
+          <a:ext cx="1441451" cy="3414750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>167005</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>201439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="554355" y="2988945"/>
+          <a:ext cx="6699250" cy="1106314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>194945</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1397000" y="2987040"/>
+          <a:ext cx="5016500" cy="1101725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>装備の説明文</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185059</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32659</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="642259" y="349914"/>
+          <a:ext cx="2362200" cy="2534800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="491166"/>
+          <a:ext cx="1839686" cy="2262920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>装備品１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>装備品２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>装備品３</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　．</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　．</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="368752"/>
+          <a:ext cx="1099457" cy="469447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3275240" y="337457"/>
+          <a:ext cx="981074" cy="511628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>上昇値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>175259</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3189514" y="942429"/>
+          <a:ext cx="2014945" cy="1917743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63954</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3264354" y="1043940"/>
+          <a:ext cx="1818186" cy="1706880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現在の能力値</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>上昇量含む</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>80555</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>206555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>116579</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5566955" y="2500175"/>
+          <a:ext cx="1636224" cy="364469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>178254</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>224247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5664654" y="2517867"/>
+          <a:ext cx="1460045" cy="324394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャラ名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="線吹き出し 3 (枠付き) 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1173480" y="4442460"/>
+          <a:ext cx="3360420" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18380"/>
+            <a:gd name="adj4" fmla="val -25284"/>
+            <a:gd name="adj5" fmla="val -220651"/>
+            <a:gd name="adj6" fmla="val -25511"/>
+            <a:gd name="adj7" fmla="val -258001"/>
+            <a:gd name="adj8" fmla="val -14229"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>装備名枠：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>装備名が表示される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>装備中のものには「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Ε</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」がついている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクター</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>人につき</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つまで装備可能。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>187739</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>88348</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="線吹き出し 1 (枠付き) 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2043043" y="4903304"/>
+          <a:ext cx="1987827" cy="1049132"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2903"/>
+            <a:gd name="adj2" fmla="val 12097"/>
+            <a:gd name="adj3" fmla="val -110303"/>
+            <a:gd name="adj4" fmla="val 53086"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>背景はバトル中の様子が透けて表示されている。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68912</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>203239</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="748534" y="3565878"/>
+          <a:ext cx="6477462" cy="650420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>208173</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66519</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1567416" y="3563972"/>
+          <a:ext cx="4842238" cy="647622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>獲得報酬</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>216242</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26603</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1802026" y="1060622"/>
+          <a:ext cx="1169604" cy="1725783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>82378</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>54009</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3480486" y="1081216"/>
+          <a:ext cx="1104334" cy="1628507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>36901</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>37026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983892" y="1040027"/>
+          <a:ext cx="1169604" cy="1725783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1366,7 +4813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -1375,4 +4822,5232 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L3:V8"/>
+    <mergeCell ref="H16:AB17"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH19"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AD3:AG4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="P16:S18"/>
+    <mergeCell ref="W16:Z18"/>
+    <mergeCell ref="AD16:AG18"/>
+    <mergeCell ref="AE3:AG4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="C3:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AE3:AG4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="U13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N4:V6"/>
+    <mergeCell ref="I13:O14"/>
+    <mergeCell ref="U13:AA14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="6"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="6"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="6"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="6"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="J14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="6"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="6"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="6"/>
+    </row>
+    <row r="19" spans="2:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J3:Z5"/>
+    <mergeCell ref="U14:Z15"/>
+    <mergeCell ref="J14:O15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/資料/ゲームフロー.xlsx
+++ b/資料/ゲームフロー.xlsx
@@ -2331,13 +2331,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85930</xdr:colOff>
+      <xdr:colOff>108790</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>16211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>183515</xdr:rowOff>
     </xdr:to>
@@ -2362,7 +2362,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="314530" y="481031"/>
+          <a:off x="337390" y="481031"/>
           <a:ext cx="2131490" cy="3139104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2374,16 +2374,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>100964</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>212725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>169544</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>207420</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>69215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2406,7 +2406,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5587364" y="1820545"/>
+          <a:off x="4512944" y="1873885"/>
           <a:ext cx="792256" cy="1174750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2418,16 +2418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>128269</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>59689</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>211455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>181030</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>112450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2450,7 +2450,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5843269" y="744855"/>
+          <a:off x="5546089" y="1133475"/>
           <a:ext cx="738561" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2581,8 +2581,8 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 12731"/>
             <a:gd name="adj2" fmla="val 178"/>
-            <a:gd name="adj3" fmla="val 20548"/>
-            <a:gd name="adj4" fmla="val -44982"/>
+            <a:gd name="adj3" fmla="val 39779"/>
+            <a:gd name="adj4" fmla="val -53493"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -2651,8 +2651,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>207420</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47400</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
@@ -2660,7 +2660,7 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2672,8 +2672,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6379620" y="1737360"/>
-          <a:ext cx="1583280" cy="670560"/>
+          <a:off x="5305200" y="1737360"/>
+          <a:ext cx="2657700" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2899,6 +2899,1752 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5539740" y="1013460"/>
+          <a:ext cx="746760" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5539740" y="1013460"/>
+          <a:ext cx="525780" cy="45720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5539740" y="1112520"/>
+          <a:ext cx="746760" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5539740" y="1112520"/>
+          <a:ext cx="190500" cy="45720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="線吹き出し 1 (枠付き) 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3215640" y="784860"/>
+          <a:ext cx="1501140" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22159"/>
+            <a:gd name="adj2" fmla="val 100334"/>
+            <a:gd name="adj3" fmla="val 36109"/>
+            <a:gd name="adj4" fmla="val 150330"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HP,SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲージ：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクターの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が表示される。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5539740" y="1226820"/>
+          <a:ext cx="129540" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722620" y="1226820"/>
+          <a:ext cx="129540" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="1226820"/>
+          <a:ext cx="129540" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6088380" y="1226820"/>
+          <a:ext cx="129540" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="1714500"/>
+          <a:ext cx="746760" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="1714254"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="1813560"/>
+          <a:ext cx="746760" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="1813560"/>
+          <a:ext cx="135255" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="1927860"/>
+          <a:ext cx="129540" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4747260" y="1927860"/>
+          <a:ext cx="129540" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4930140" y="1927860"/>
+          <a:ext cx="129540" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5113020" y="1927860"/>
+          <a:ext cx="129540" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="563880"/>
+          <a:ext cx="1249680" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64977</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769029" y="563742"/>
+          <a:ext cx="1123173" cy="76202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="716280"/>
+          <a:ext cx="1249680" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="716280"/>
+          <a:ext cx="1203960" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="883920"/>
+          <a:ext cx="198120" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="891540"/>
+          <a:ext cx="198120" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="891540"/>
+          <a:ext cx="198120" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="891540"/>
+          <a:ext cx="198120" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2065020" y="723900"/>
+          <a:ext cx="1150620" cy="468630"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="336699"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="線吹き出し 1 (枠付き) 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446020" y="2369820"/>
+          <a:ext cx="1889760" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -692"/>
+            <a:gd name="adj2" fmla="val 12070"/>
+            <a:gd name="adj3" fmla="val -110704"/>
+            <a:gd name="adj4" fmla="val -27911"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バフ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>デバフアイコン：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バフなら赤、デバフなら青で特定のマークが表示される。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="41" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3390900" y="2004060"/>
+          <a:ext cx="1104900" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="336699"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102973</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>34324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141838" y="405027"/>
+          <a:ext cx="4462162" cy="219676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>222662</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>39585</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>188025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="線吹き出し 1 (枠付き) 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8189026" y="291934"/>
+          <a:ext cx="2548247" cy="1044039"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2906,16 +4652,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163251</xdr:rowOff>
+      <xdr:rowOff>170871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2946,7 +4692,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="975360" y="858576"/>
+          <a:off x="411480" y="864291"/>
           <a:ext cx="2819400" cy="3136209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2958,16 +4704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>108585</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>384</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>221364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>77172</xdr:rowOff>
+      <xdr:rowOff>69552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2989,8 +4735,61 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3994785" y="924309"/>
+          <a:off x="4878705" y="914784"/>
           <a:ext cx="2865120" cy="3277188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68014</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>51931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19959</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582614" y="51931"/>
+          <a:ext cx="2695145" cy="3978486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3020,7 +4819,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3064,7 +4863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4545,6 +6344,68 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="線吹き出し 1 (枠付き) 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7345680" y="1470660"/>
+          <a:ext cx="1836420" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29965"/>
+            <a:gd name="adj2" fmla="val 1069"/>
+            <a:gd name="adj3" fmla="val 84384"/>
+            <a:gd name="adj4" fmla="val -64512"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編成しているパーティーメンバーが表示される。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6127,7 +7988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -6850,11 +8711,11 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-      <c r="AE3" s="16" t="s">
+      <c r="AE3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="14"/>
       <c r="AH3" s="6"/>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.45">
@@ -6887,9 +8748,9 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="20"/>
       <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.45">
@@ -9401,7 +11262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/資料/ゲームフロー.xlsx
+++ b/資料/ゲームフロー.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -41,27 +41,6 @@
   </si>
   <si>
     <t>メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <rPh sb="0" eb="2">
-      <t>ボウギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦う</t>
-    <rPh sb="0" eb="1">
-      <t>タタカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <rPh sb="0" eb="2">
-      <t>ドウグ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -110,6 +89,18 @@
     <rPh sb="4" eb="5">
       <t>モド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうげき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とくしゅ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4601,8 +4592,8 @@
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>39585</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>188025</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4611,11 +4602,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8189026" y="291934"/>
-          <a:ext cx="2548247" cy="1044039"/>
+          <a:off x="8263868" y="291835"/>
+          <a:ext cx="2573908" cy="577381"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1124"/>
+            <a:gd name="adj2" fmla="val 180"/>
+            <a:gd name="adj3" fmla="val 28676"/>
+            <a:gd name="adj4" fmla="val -60359"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -4629,6 +4625,71 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイムライン：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次に誰が行動するかを示す。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>36095</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="409074"/>
+          <a:ext cx="1179095" cy="220579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -6674,7 +6735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -8641,7 +8702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -8712,7 +8775,7 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="13"/>
       <c r="AG3" s="14"/>
@@ -9154,7 +9217,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
@@ -9163,7 +9226,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -9172,7 +9235,7 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE16" s="13"/>
       <c r="AF16" s="13"/>
@@ -9344,7 +9407,7 @@
     <row r="3" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B3" s="4"/>
       <c r="C3" s="21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
@@ -9374,7 +9437,7 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF3" s="13"/>
       <c r="AG3" s="14"/>
@@ -10695,7 +10758,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
@@ -11007,7 +11070,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -11020,7 +11083,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="U13" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
@@ -11314,7 +11377,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -11700,7 +11763,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="J14" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -11713,7 +11776,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>

--- a/資料/ゲームフロー.xlsx
+++ b/資料/ゲームフロー.xlsx
@@ -1428,6 +1428,192 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>85479</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129263</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19498101">
+          <a:off x="1228479" y="3157452"/>
+          <a:ext cx="1872584" cy="98320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175261</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19290915">
+          <a:off x="2461261" y="2057402"/>
+          <a:ext cx="2225040" cy="99060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>125212</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>226813</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2753218">
+          <a:off x="3991373" y="2405979"/>
+          <a:ext cx="2884879" cy="101601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1489,16 +1675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1507,7 +1693,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6065520" y="3208020"/>
+          <a:off x="2484120" y="2476500"/>
           <a:ext cx="685800" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1615,16 +1801,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1633,7 +1819,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2598420" y="2529840"/>
+          <a:off x="6035040" y="3223260"/>
           <a:ext cx="685800" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1673,318 +1859,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1485900" y="2758440"/>
-          <a:ext cx="1112520" cy="678180"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>128167</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>169265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>184253</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66955</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="7"/>
-          <a:endCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1728367" y="2920085"/>
-          <a:ext cx="970486" cy="583490"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>211987</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>214985</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1373</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>74575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="7"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3183787" y="1594205"/>
-          <a:ext cx="932386" cy="1002590"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2941320" y="1432560"/>
-          <a:ext cx="1074420" cy="1097280"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>29107</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>214985</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="5"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4601107" y="1594205"/>
-          <a:ext cx="1807313" cy="1613815"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>222353</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66955</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="4" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4358640" y="1661160"/>
-          <a:ext cx="1807313" cy="1613815"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2078,7 +1952,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>赤：敵との戦闘が始まるバトルマス</a:t>
+            <a:t>紫：敵との戦闘が始まるバトルマス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2094,7 +1968,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>紫：その章を終了させる</a:t>
+            <a:t>赤：その章を終了させる</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2194,16 +2068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>207590</xdr:rowOff>
+      <xdr:rowOff>100910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2226,7 +2100,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2606040" y="1813560"/>
+          <a:off x="2476500" y="1706880"/>
           <a:ext cx="624840" cy="916250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2461,8 +2335,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2472,31 +2346,34 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1478280" y="4625340"/>
-          <a:ext cx="2453640" cy="914400"/>
+          <a:ext cx="2453640" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val -893"/>
             <a:gd name="adj2" fmla="val 13096"/>
-            <a:gd name="adj3" fmla="val -131785"/>
-            <a:gd name="adj4" fmla="val -3240"/>
+            <a:gd name="adj3" fmla="val -88844"/>
+            <a:gd name="adj4" fmla="val 487"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2514,7 +2391,23 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>バトルマス、ボスマスに登場する。</a:t>
+            <a:t>バトルマス、ボスマスに登場する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>基本は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>体編成で出現するが、ボスマスでの戦闘では</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -2522,23 +2415,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>バトル</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>～</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>体ほどでる。</a:t>
+            <a:t>体だけ出現することもある。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2576,21 +2453,24 @@
             <a:gd name="adj4" fmla="val -53493"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2723,21 +2603,24 @@
             <a:gd name="adj4" fmla="val 11363"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2816,24 +2699,24 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700">
+        <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="336699"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -2867,24 +2750,24 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700">
+        <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="336699"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -3161,21 +3044,24 @@
             <a:gd name="adj4" fmla="val 150330"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4376,24 +4262,24 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700">
+        <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="336699"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -4430,21 +4316,24 @@
             <a:gd name="adj4" fmla="val -27911"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4505,24 +4394,24 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700">
+        <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="336699"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -4613,21 +4502,24 @@
             <a:gd name="adj4" fmla="val -60359"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4701,6 +4593,379 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8298180" y="2468880"/>
+          <a:ext cx="3771900" cy="1897380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>補足　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>HP,SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ゲージについて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ゲージ：キャラクターの体力を表す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　　　　　このゲージが尽きると、キャラクターはその</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　　　　　戦闘には参加できなくなる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>SP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ゲージ：各キャラクターはこのゲージを消費して技を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　　　　　使用できる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ゲージの残量が少ないと強力な技が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　　　　　使えなくなる。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8050,7 +8315,7 @@
   <dimension ref="B1:AH19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8703,7 +8968,7 @@
   <dimension ref="B1:AH19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
